--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKLib_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4809F486-F874-41C4-BB0C-7B5DCFF6B977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDB0A12-E750-4B1E-894C-F6F7B5273D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
